--- a/WpfAppVedomost/bin/Debug/Test group.xlsx
+++ b/WpfAppVedomost/bin/Debug/Test group.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Загрузки\MyApps\Диплом2019-2020\XXX\WpfAppVedomost\bin\Debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Загрузки\XXX-master\XXX-master\WpfAppVedomost\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{003600DB-B026-4D5D-9562-6000190F32E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE3AD8DD-EC76-441B-AE4A-76EDC6074AD2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="888" yWindow="-108" windowWidth="22260" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="840" yWindow="-108" windowWidth="22308" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="4361-22" sheetId="1" r:id="rId1"/>
@@ -114,7 +114,7 @@
     <t>80880</t>
   </si>
   <si>
-    <t>Ntest</t>
+    <t>Шамсеев Адель Аделькин</t>
   </si>
 </sst>
 </file>
@@ -132,7 +132,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -142,11 +142,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="60"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="59"/>
       </patternFill>
     </fill>
     <fill>
@@ -221,9 +216,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -232,10 +227,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -244,10 +236,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -632,10 +624,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -649,14 +641,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
     </row>
     <row r="2" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -691,10 +683,10 @@
       <c r="D3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" s="6" t="s">
+      <c r="E3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>27</v>
       </c>
     </row>
@@ -711,10 +703,10 @@
       <c r="D4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" s="7" t="s">
+      <c r="E4" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="6" t="s">
         <v>27</v>
       </c>
     </row>
@@ -731,10 +723,10 @@
       <c r="D5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" s="6" t="s">
+      <c r="E5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>27</v>
       </c>
     </row>
@@ -751,10 +743,10 @@
       <c r="D6" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" s="7" t="s">
+      <c r="E6" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="6" t="s">
         <v>27</v>
       </c>
     </row>
@@ -771,10 +763,10 @@
       <c r="D7" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" s="6" t="s">
+      <c r="E7" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="5" t="s">
         <v>27</v>
       </c>
     </row>
@@ -791,10 +783,10 @@
       <c r="D8" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F8" s="7" t="s">
+      <c r="E8" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="6" t="s">
         <v>27</v>
       </c>
     </row>
@@ -811,10 +803,10 @@
       <c r="D9" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F9" s="6" t="s">
+      <c r="E9" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="5" t="s">
         <v>27</v>
       </c>
     </row>
@@ -831,10 +823,10 @@
       <c r="D10" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F10" s="7" t="s">
+      <c r="E10" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="6" t="s">
         <v>27</v>
       </c>
     </row>
@@ -851,10 +843,10 @@
       <c r="D11" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F11" s="6" t="s">
+      <c r="E11" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" s="5" t="s">
         <v>27</v>
       </c>
     </row>
@@ -871,10 +863,10 @@
       <c r="D12" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F12" s="7" t="s">
+      <c r="E12" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="6" t="s">
         <v>27</v>
       </c>
     </row>
@@ -891,10 +883,10 @@
       <c r="D13" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E13" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F13" s="6" t="s">
+      <c r="E13" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" s="5" t="s">
         <v>27</v>
       </c>
     </row>
@@ -902,17 +894,19 @@
       <c r="A14" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="3"/>
+      <c r="B14" s="3">
+        <v>1223435</v>
+      </c>
       <c r="C14" s="3" t="s">
         <v>21</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F14" s="7" t="s">
+      <c r="E14" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" s="6" t="s">
         <v>27</v>
       </c>
     </row>
@@ -929,10 +923,10 @@
       <c r="D15" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E15" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F15" s="6" t="s">
+      <c r="E15" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" s="5" t="s">
         <v>27</v>
       </c>
     </row>
@@ -949,10 +943,10 @@
       <c r="D16" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F16" s="7" t="s">
+      <c r="E16" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" s="6" t="s">
         <v>27</v>
       </c>
     </row>
@@ -969,15 +963,17 @@
       <c r="D17" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E17" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F17" s="6" t="s">
+      <c r="E17" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F17" s="5" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
+      <c r="A18" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="B18" s="3">
         <v>1601587</v>
       </c>
@@ -987,10 +983,10 @@
       <c r="D18" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F18" s="7" t="s">
+      <c r="E18" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18" s="6" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1007,10 +1003,10 @@
       <c r="D19" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E19" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F19" s="6" t="s">
+      <c r="E19" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F19" s="5" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1027,30 +1023,20 @@
       <c r="D20" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E20" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F20" s="7" t="s">
+      <c r="E20" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F20" s="6" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="4">
-        <v>18</v>
-      </c>
+      <c r="A21" s="3"/>
       <c r="B21" s="3"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="8"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B22" s="3">
-        <v>1111111</v>
-      </c>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">
